--- a/data/case1/14/Plm2_6.xlsx
+++ b/data/case1/14/Plm2_6.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.24925765130558375</v>
+        <v>-0.2476608498783861</v>
       </c>
       <c r="B1" s="0">
-        <v>0.24886503704243523</v>
+        <v>0.24726123075171813</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.20275804759913285</v>
+        <v>-0.20115084388407745</v>
       </c>
       <c r="B2" s="0">
-        <v>0.20134048374098512</v>
+        <v>0.19972567715326761</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.098398418331878901</v>
+        <v>-0.096781991906656373</v>
       </c>
       <c r="B3" s="0">
-        <v>0.098167857115171842</v>
+        <v>0.096551037798221273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.16016081632420054</v>
+        <v>-0.15854683200707598</v>
       </c>
       <c r="B4" s="0">
-        <v>0.1595366383476069</v>
+        <v>0.15792952456073195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.15353663920289939</v>
+        <v>-0.15192952495581835</v>
       </c>
       <c r="B5" s="0">
-        <v>0.15229086584035301</v>
+        <v>0.15070219646036875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.079726334019437406</v>
+        <v>-0.079135062929207134</v>
       </c>
       <c r="B6" s="0">
-        <v>0.079648572837415887</v>
+        <v>0.079058005208028526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.059648573855046294</v>
+        <v>-0.059058005691547066</v>
       </c>
       <c r="B7" s="0">
-        <v>0.059479919102912504</v>
+        <v>0.058885182443944473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.039479920128477453</v>
+        <v>-0.038885182931523765</v>
       </c>
       <c r="B8" s="0">
-        <v>0.039348070456965978</v>
+        <v>0.03873899006189685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.033348071357325537</v>
+        <v>-0.032738990478989649</v>
       </c>
       <c r="B9" s="0">
-        <v>0.03323879062842483</v>
+        <v>0.032613100911402348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027238791535118878</v>
+        <v>-0.026613101331804501</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027228967390101388</v>
+        <v>0.026596436273152335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.034306527326194214</v>
+        <v>-0.037023829609406533</v>
       </c>
       <c r="B11" s="0">
-        <v>0.034278890087907854</v>
+        <v>0.036989013698242701</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.028278890996579431</v>
+        <v>-0.030989014119871872</v>
       </c>
       <c r="B12" s="0">
-        <v>0.028198023923275084</v>
+        <v>0.030890584517594188</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.022198024839653385</v>
+        <v>-0.024890584943673133</v>
       </c>
       <c r="B13" s="0">
-        <v>0.022180578721320288</v>
+        <v>0.024868008868227598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.010180579696462466</v>
+        <v>-0.012868009327418051</v>
       </c>
       <c r="B14" s="0">
-        <v>0.010175956544917319</v>
+        <v>0.012861185065538017</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0041759574641062613</v>
+        <v>-0.0068611854934941263</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0041733783116395529</v>
+        <v>0.006857728622906123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0018266207687243075</v>
+        <v>-0.00085772905127523558</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0018343417439932175</v>
+        <v>0.00085255451655452674</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090039678526370182</v>
+        <v>-0.0090043415338634247</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999990519151751</v>
+        <v>0.0089999995551810485</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036106990302283037</v>
+        <v>-0.036110387266482746</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096232434836395</v>
+        <v>0.03609674842894961</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096233285176297</v>
+        <v>-0.027096748822755146</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013192291564625</v>
+        <v>0.0270136953078155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013193149789331</v>
+        <v>-0.018013695705388244</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004220832755991</v>
+        <v>0.018004289101750004</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042216920487306</v>
+        <v>-0.0090042894998889622</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999991401583657</v>
+        <v>0.008999999601473796</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.09394206627652224</v>
+        <v>-0.093943685649238162</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093631297235027944</v>
+        <v>0.093631934958597896</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084631298108786446</v>
+        <v>-0.084631935364845035</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084126014771849</v>
+        <v>0.084126307112511789</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042126015972654862</v>
+        <v>-0.042126307701066068</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998793186499</v>
+        <v>0.041999999408152355</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.066564532703225154</v>
+        <v>-0.065567133938898792</v>
       </c>
       <c r="B25" s="0">
-        <v>0.06651155673395337</v>
+        <v>0.065510013455547522</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.008493294391822559</v>
+        <v>-0.011327512257359729</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0084493670305292312</v>
+        <v>0.011282167807969756</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024493679144788061</v>
+        <v>-0.0052821682164667649</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0022912160423063099</v>
+        <v>0.0051287225838825279</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0037087830734581217</v>
+        <v>0.00087127700711775447</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0038190317062589685</v>
+        <v>-0.00097652320257957115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.015819030765843678</v>
+        <v>0.012976522761793063</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.015874871523273271</v>
+        <v>-0.013028199027992571</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042161625538702729</v>
+        <v>-0.042163060215933523</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042018026137891962</v>
+        <v>0.042019076826638635</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027018027112704956</v>
+        <v>-0.027019077286691839</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000576435760593</v>
+        <v>0.027000792563438125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060005774685603086</v>
+        <v>-0.0060007930560495026</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999991093953042</v>
+        <v>0.0059999995870079204</v>
       </c>
     </row>
   </sheetData>
